--- a/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
+++ b/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
@@ -42,7 +42,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test204@yopmail.com</t>
+    <t>test410@yopmail.com</t>
   </si>
   <si>
     <t>Test@1234</t>

--- a/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
+++ b/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
@@ -42,7 +42,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test410@yopmail.com</t>
+    <t>test204@yopmail.com</t>
   </si>
   <si>
     <t>Test@1234</t>

--- a/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
+++ b/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahba\OneDrive\Documents\Babulal_Docs\MochaSeleniumTests\UCIC.WebAutomation\UCIC.WebAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahba\OneDrive\Documents\Babulal_Docs\MochaSeleniumTests\MochaWeb\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34E7F5-7D53-4EF8-BB87-EFECD281DDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22BEB7-80C3-47D7-AFE2-838E76AA26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F843C61-8AEA-44B9-A9C1-B1B4CCC5BDC7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test204@yopmail.com</t>
+    <t>test421@yopmail.com</t>
   </si>
   <si>
     <t>Test@1234</t>
@@ -70,18 +70,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +93,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,7 +413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,18 +423,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
+++ b/bin/Debug/net6.0/TestData/LoginCredentials.xlsx
@@ -42,7 +42,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test421@yopmail.com</t>
+    <t>test418@yopmail.com</t>
   </si>
   <si>
     <t>Test@1234</t>
